--- a/doc/valveinfo.xlsx
+++ b/doc/valveinfo.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90DB23C-7E4B-4B70-991B-3ED19CF5A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713AF12E-C1F6-45B6-974A-7ACF40C7D6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FAC81CA-B5CA-47B2-A2D5-B273504C5602}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FAC81CA-B5CA-47B2-A2D5-B273504C5602}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Cooling valves</t>
   </si>
@@ -93,13 +94,105 @@
   </si>
   <si>
     <t>Av</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>w = Av*sqrt(dp_valve)*sqrt(1000)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>omega/omeganom</t>
+  </si>
+  <si>
+    <t>q m3/h</t>
+  </si>
+  <si>
+    <t>pout_val bar</t>
+  </si>
+  <si>
+    <t>pin_pump bar</t>
+  </si>
+  <si>
+    <t>Head_pump</t>
+  </si>
+  <si>
+    <t>dp_pump</t>
+  </si>
+  <si>
+    <t>pout_pump</t>
+  </si>
+  <si>
+    <t>dp_valve</t>
+  </si>
+  <si>
+    <t> head = (omega/omeganom)^2*(b[1]+ q_m3hr*(omeganom/omega)*(b[2] + b[3]*q_m3hr*(omeganom/omega)))</t>
+  </si>
+  <si>
+    <r>
+      <t>                  ((b[1]+ q_m3hr*(omeganom/omega)*(b[2] + b[3]*q_m3hr*(omeganom/omega)))))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t> else </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(omega/omeganom)^2*(b[1]+ (qnom_inm3h_min)*(omeganom/omega)*(b[2] + b[3]*(qnom_inm3h_min)*(omeganom/omega))) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF006400"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Head Characteristic equation"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t> head = dp_pump/(rhoin*g);</t>
+  </si>
+  <si>
+    <t>pressione fissa del vaso di espansione lato sorgente 1.65 bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +207,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF006400"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,11 +247,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -454,10 +568,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C796AB-55EB-43C5-979E-1F7DEA32CDDE}">
+  <dimension ref="B2:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>12.235633999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.25080200000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>-2.3148999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f>+C9/50</f>
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <v>8.68</v>
+      </c>
+      <c r="F9">
+        <v>1.26</v>
+      </c>
+      <c r="G9">
+        <v>1.68</v>
+      </c>
+      <c r="H9">
+        <f>+D9^2*($D$2+E9/D9*($D$3+$D$4*E9/D9))</f>
+        <v>3.9669038383999999</v>
+      </c>
+      <c r="I9">
+        <f>+H9*1000*9.81</f>
+        <v>38915.326654704004</v>
+      </c>
+      <c r="J9">
+        <f>+I9/100000 + G9</f>
+        <v>2.06915326654704</v>
+      </c>
+      <c r="K9">
+        <f>+J9-F9</f>
+        <v>0.80915326654704001</v>
+      </c>
+      <c r="L9">
+        <f>+E9*1000/3600</f>
+        <v>2.411111111111111</v>
+      </c>
+      <c r="M9">
+        <f>+L9/SQRT(1000)/SQRT(K9*100000)</f>
+        <v>2.6804136971517688E-4</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <f>+C10/50</f>
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F10">
+        <v>1.35</v>
+      </c>
+      <c r="G10">
+        <v>1.66</v>
+      </c>
+      <c r="H10">
+        <f>+D10^2*($D$2+E10/D10*($D$3+$D$4*E10/D10))</f>
+        <v>5.688330357499999</v>
+      </c>
+      <c r="I10">
+        <f>+H10*1000*9.81</f>
+        <v>55802.520807074994</v>
+      </c>
+      <c r="J10">
+        <f>+I10/100000 + G10</f>
+        <v>2.2180252080707499</v>
+      </c>
+      <c r="K10">
+        <f>+J10-F10</f>
+        <v>0.86802520807074979</v>
+      </c>
+      <c r="L10">
+        <f>+E10*1000/3600</f>
+        <v>2.5138888888888888</v>
+      </c>
+      <c r="M10">
+        <f>+L10/SQRT(1000)/SQRT(K10*100000)</f>
+        <v>2.6982358588328994E-4</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <f>+C11/50</f>
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>9.41</v>
+      </c>
+      <c r="F11">
+        <v>1.46</v>
+      </c>
+      <c r="G11">
+        <v>1.65</v>
+      </c>
+      <c r="H11">
+        <f>+D11^2*($D$2+E11/D11*($D$3+$D$4*E11/D11))</f>
+        <v>7.6690432491000013</v>
+      </c>
+      <c r="I11">
+        <f>+H11*1000*9.81</f>
+        <v>75233.314273671014</v>
+      </c>
+      <c r="J11">
+        <f>+I11/100000 + G11</f>
+        <v>2.4023331427367101</v>
+      </c>
+      <c r="K11">
+        <f>+J11-F11</f>
+        <v>0.94233314273671009</v>
+      </c>
+      <c r="L11">
+        <f>+E11*1000/3600</f>
+        <v>2.6138888888888889</v>
+      </c>
+      <c r="M11">
+        <f>+L11/SQRT(1000)/SQRT(K11*100000)</f>
+        <v>2.6926808995225883E-4</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <f>+C12/50</f>
+        <v>0.9</v>
+      </c>
+      <c r="E12">
+        <v>9.82</v>
+      </c>
+      <c r="F12">
+        <v>1.59</v>
+      </c>
+      <c r="G12">
+        <v>1.63</v>
+      </c>
+      <c r="H12">
+        <f>+D12^2*($D$2+E12/D12*($D$3+$D$4*E12/D12))</f>
+        <v>9.8951379884000001</v>
+      </c>
+      <c r="I12">
+        <f>+H12*1000*9.81</f>
+        <v>97071.303666203996</v>
+      </c>
+      <c r="J12">
+        <f>+I12/100000 + G12</f>
+        <v>2.6007130366620399</v>
+      </c>
+      <c r="K12">
+        <f>+J12-F12</f>
+        <v>1.0107130366620398</v>
+      </c>
+      <c r="L12">
+        <f>+E12*1000/3600</f>
+        <v>2.7277777777777779</v>
+      </c>
+      <c r="M12">
+        <f>+L12/SQRT(1000)/SQRT(K12*100000)</f>
+        <v>2.7132827470343268E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <f>+C13/50</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F13">
+        <v>1.72</v>
+      </c>
+      <c r="G13">
+        <v>1.62</v>
+      </c>
+      <c r="H13">
+        <f>+D13^2*($D$2+E13/D13*($D$3+$D$4*E13/D13))</f>
+        <v>12.38539244</v>
+      </c>
+      <c r="I13">
+        <f>+H13*1000*9.81</f>
+        <v>121500.6998364</v>
+      </c>
+      <c r="J13">
+        <f>+I13/100000 + G13</f>
+        <v>2.8350069983640003</v>
+      </c>
+      <c r="K13">
+        <f>+J13-F13</f>
+        <v>1.1150069983640003</v>
+      </c>
+      <c r="L13">
+        <f>+E13*1000/3600</f>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="M13">
+        <f>+L13/SQRT(1000)/SQRT(K13*100000)</f>
+        <v>2.6832360141932531E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <f>+AVERAGE(M9:M13)</f>
+        <v>2.6935698433469671E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <f>+M15/(2.77778*0.00001)</f>
+        <v>9.6968436785741385</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444F5200-58A8-4188-86AE-F363677F6432}">
   <dimension ref="C2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="M13" sqref="M13:N13"/>
     </sheetView>
   </sheetViews>

--- a/doc/valveinfo.xlsx
+++ b/doc/valveinfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiscoD\Muro\GitHub\multienergysystem\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713AF12E-C1F6-45B6-974A-7ACF40C7D6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A299DD-B3FB-4579-A9B8-6862C54EC867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5FAC81CA-B5CA-47B2-A2D5-B273504C5602}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5FAC81CA-B5CA-47B2-A2D5-B273504C5602}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1 (2)" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>Cooling valves</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>b3</t>
-  </si>
-  <si>
-    <t>w = Av*sqrt(dp_valve)*sqrt(1000)</t>
   </si>
   <si>
     <t>%</t>
@@ -186,6 +183,12 @@
   </si>
   <si>
     <t>pressione fissa del vaso di espansione lato sorgente 1.65 bar</t>
+  </si>
+  <si>
+    <t>w = theta*Av*sqrt(dp_valve)*sqrt(1000)</t>
+  </si>
+  <si>
+    <t>m_flow_nom</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C796AB-55EB-43C5-979E-1F7DEA32CDDE}">
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="112" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,39 +610,39 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>30</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
       </c>
       <c r="L7" t="s">
         <v>17</v>
@@ -693,7 +696,7 @@
         <v>2.6804136971517688E-4</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -741,7 +744,7 @@
         <v>2.6982358588328994E-4</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -789,7 +792,7 @@
         <v>2.6926808995225883E-4</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -900,17 +903,41 @@
         <v>9.6968436785741385</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>+P19*1000/3600</f>
+        <v>4.3342782416666665</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>100</v>
       </c>
       <c r="C19">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="P19">
+        <v>15.60340167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>+(L18/SQRT(980)/M15)^2</f>
+        <v>264211.07458050433</v>
+      </c>
+      <c r="M20">
+        <f>+L20/100000</f>
+        <v>2.6421107458050432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="L24" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
